--- a/Plots and Tables/RVCAT/Effort_CurrentYear.xlsx
+++ b/Plots and Tables/RVCAT/Effort_CurrentYear.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>TARGET</t>
   </si>
@@ -135,19 +135,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>0.88</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>0.81</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="G2" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="3">
@@ -158,19 +158,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D3" t="n">
-        <v>24.78</v>
+        <v>19.64</v>
       </c>
       <c r="E3" t="n">
-        <v>22.5</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G3" t="n">
-        <v>55.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="4">
@@ -181,19 +181,19 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.41</v>
+        <v>17.82</v>
       </c>
       <c r="E4" t="n">
-        <v>17.35</v>
+        <v>15.0</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8</v>
+        <v>10.0</v>
       </c>
       <c r="G4" t="n">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="5">
@@ -204,19 +204,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D5" t="n">
-        <v>60.37</v>
+        <v>58.15</v>
       </c>
       <c r="E5" t="n">
-        <v>54.45</v>
+        <v>53.2</v>
       </c>
       <c r="F5" t="n">
-        <v>19.7</v>
+        <v>36.7</v>
       </c>
       <c r="G5" t="n">
-        <v>143.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="6">
@@ -227,19 +227,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D6" t="n">
-        <v>41.96</v>
+        <v>40.33</v>
       </c>
       <c r="E6" t="n">
-        <v>39.15</v>
+        <v>34.3</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>12.0</v>
       </c>
       <c r="G6" t="n">
-        <v>125.3</v>
+        <v>81.0</v>
       </c>
     </row>
     <row r="7">
@@ -250,19 +250,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.59</v>
+        <v>6.36</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="8">
@@ -273,341 +273,180 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>76.0</v>
+        <v>11.0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.7</v>
+        <v>10.55</v>
       </c>
       <c r="E8" t="n">
-        <v>1.38</v>
+        <v>3.35</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>48.27</v>
+        <v>51.89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.43</v>
+        <v>0.88</v>
       </c>
       <c r="E9" t="n">
-        <v>0.43</v>
+        <v>0.89</v>
       </c>
       <c r="F9" t="n">
-        <v>0.32</v>
+        <v>0.76</v>
       </c>
       <c r="G9" t="n">
-        <v>0.47</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n">
-        <v>10.01</v>
+        <v>16.93</v>
       </c>
       <c r="E10" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.22</v>
+        <v>144.12</v>
       </c>
       <c r="E11" t="n">
-        <v>6.25</v>
+        <v>140.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.3</v>
+        <v>78.7</v>
       </c>
       <c r="G11" t="n">
-        <v>19.6</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>37.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12" t="n">
-        <v>7.69</v>
+        <v>146.25</v>
       </c>
       <c r="E12" t="n">
-        <v>6.2</v>
+        <v>143.0</v>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>85.5</v>
       </c>
       <c r="G12" t="n">
-        <v>19.9</v>
+        <v>193.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>37.0</v>
+        <v>6.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.75</v>
+        <v>5.47</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4</v>
+        <v>4.9</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.7</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.26</v>
+        <v>3.83</v>
       </c>
       <c r="E14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106.0</v>
+        <v>118.0</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.08</v>
+        <v>5.27</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>2.75</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>0.55</v>
       </c>
       <c r="G15" t="n">
-        <v>70.83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20.11</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>188.17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>184.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>189.35</v>
-      </c>
-      <c r="E19" t="n">
-        <v>183.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>92.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>318.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>7.01</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>25.43</v>
+        <v>17.19</v>
       </c>
     </row>
   </sheetData>
